--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43125,6 +43125,41 @@
         <v>391000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>148000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43160,6 +43160,41 @@
         <v>148000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>95000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43195,6 +43195,41 @@
         <v>95000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>437100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43230,6 +43230,41 @@
         <v>437100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>54000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43265,6 +43265,43 @@
         <v>54000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43302,6 +43302,41 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>148200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43337,6 +43337,41 @@
         <v>148200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>475000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43372,6 +43372,41 @@
         <v>475000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>296500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43407,6 +43407,41 @@
         <v>296500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>138000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43442,6 +43442,41 @@
         <v>138000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>323000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43477,6 +43477,41 @@
         <v>323000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>120100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43512,6 +43512,41 @@
         <v>120100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>480600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43547,6 +43547,76 @@
         <v>480600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>376500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>302000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43617,6 +43617,76 @@
         <v>302000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>575900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>154900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43687,6 +43687,41 @@
         <v>154900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>295100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43722,6 +43722,43 @@
         <v>295100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43759,6 +43759,43 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43796,6 +43796,41 @@
         </is>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>15300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43831,6 +43831,76 @@
         <v>15300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>187000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>8100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43901,6 +43901,41 @@
         <v>8100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>95200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43936,6 +43936,41 @@
         <v>95200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>287400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2478"/>
+  <dimension ref="A1:I2479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87266,6 +87266,41 @@
         <v>287400</v>
       </c>
     </row>
+    <row r="2479">
+      <c r="A2479" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D2479" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E2479" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2479" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2479" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2479" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2479" t="n">
+        <v>110500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2479"/>
+  <dimension ref="A1:I2480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87301,6 +87301,41 @@
         <v>110500</v>
       </c>
     </row>
+    <row r="2480">
+      <c r="A2480" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E2480" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2480" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2480" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2480" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2480" t="n">
+        <v>208900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2480"/>
+  <dimension ref="A1:I2481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87336,6 +87336,41 @@
         <v>208900</v>
       </c>
     </row>
+    <row r="2481">
+      <c r="A2481" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D2481" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E2481" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2481" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2481" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2481" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2481" t="n">
+        <v>433600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2481"/>
+  <dimension ref="A1:I2482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87371,6 +87371,41 @@
         <v>433600</v>
       </c>
     </row>
+    <row r="2482">
+      <c r="A2482" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E2482" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2482" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2482" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2482" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2482" t="n">
+        <v>514100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2482"/>
+  <dimension ref="A1:I2483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87406,6 +87406,41 @@
         <v>514100</v>
       </c>
     </row>
+    <row r="2483">
+      <c r="A2483" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E2483" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2483" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2483" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2483" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2483" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2483"/>
+  <dimension ref="A1:I2484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87441,6 +87441,41 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="2484">
+      <c r="A2484" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2484" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D2484" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E2484" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2484" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2484" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2484" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2484" t="n">
+        <v>202000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2484"/>
+  <dimension ref="A1:I2485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87476,6 +87476,41 @@
         <v>202000</v>
       </c>
     </row>
+    <row r="2485">
+      <c r="A2485" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2485" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D2485" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E2485" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2485" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2485" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2485" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2485" t="n">
+        <v>147000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2485"/>
+  <dimension ref="A1:I2486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87511,6 +87511,41 @@
         <v>147000</v>
       </c>
     </row>
+    <row r="2486">
+      <c r="A2486" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2486" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D2486" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E2486" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2486" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2486" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2486" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2486" t="n">
+        <v>268400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2486"/>
+  <dimension ref="A1:I2487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87546,6 +87546,41 @@
         <v>268400</v>
       </c>
     </row>
+    <row r="2487">
+      <c r="A2487" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2487" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D2487" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E2487" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2487" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2487" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2487" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2487" t="n">
+        <v>80500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2487"/>
+  <dimension ref="A1:I2488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87581,6 +87581,41 @@
         <v>80500</v>
       </c>
     </row>
+    <row r="2488">
+      <c r="A2488" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2488" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D2488" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E2488" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2488" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2488" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2488" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2488" t="n">
+        <v>130500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2488"/>
+  <dimension ref="A1:I2489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87616,6 +87616,41 @@
         <v>130500</v>
       </c>
     </row>
+    <row r="2489">
+      <c r="A2489" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D2489" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E2489" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2489" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2489" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2489" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2489" t="n">
+        <v>202500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2489"/>
+  <dimension ref="A1:I2490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87651,6 +87651,41 @@
         <v>202500</v>
       </c>
     </row>
+    <row r="2490">
+      <c r="A2490" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D2490" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E2490" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2490" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2490" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2490" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2490" t="n">
+        <v>152500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2490"/>
+  <dimension ref="A1:I2491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87686,6 +87686,41 @@
         <v>152500</v>
       </c>
     </row>
+    <row r="2491">
+      <c r="A2491" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E2491" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2491" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2491" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2491" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2491" t="n">
+        <v>97600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2491"/>
+  <dimension ref="A1:I2492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87721,6 +87721,41 @@
         <v>97600</v>
       </c>
     </row>
+    <row r="2492">
+      <c r="A2492" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E2492" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2492" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2492" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2492" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2492" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6998.xlsx
+++ b/data/6998.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2492"/>
+  <dimension ref="A1:I2493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87756,6 +87756,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="2493">
+      <c r="A2493" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>BINTAI</t>
+        </is>
+      </c>
+      <c r="E2493" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2493" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2493" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2493" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2493" t="n">
+        <v>37600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
